--- a/TAN based intrusion detection - results.xlsx
+++ b/TAN based intrusion detection - results.xlsx
@@ -670,11 +670,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="274130556"/>
-        <c:axId val="590038487"/>
+        <c:axId val="1244134209"/>
+        <c:axId val="1254460548"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="274130556"/>
+        <c:axId val="1244134209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,10 +726,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590038487"/>
+        <c:crossAx val="1254460548"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="590038487"/>
+        <c:axId val="1254460548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +804,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274130556"/>
+        <c:crossAx val="1244134209"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -955,11 +955,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="229656657"/>
-        <c:axId val="864642936"/>
+        <c:axId val="1412944634"/>
+        <c:axId val="485941672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229656657"/>
+        <c:axId val="1412944634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,10 +1011,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864642936"/>
+        <c:crossAx val="485941672"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="864642936"/>
+        <c:axId val="485941672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229656657"/>
+        <c:crossAx val="1412944634"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1180,11 +1180,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="245653734"/>
-        <c:axId val="1774501660"/>
+        <c:axId val="841047268"/>
+        <c:axId val="873069523"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245653734"/>
+        <c:axId val="841047268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,10 +1236,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774501660"/>
+        <c:crossAx val="873069523"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1774501660"/>
+        <c:axId val="873069523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1314,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245653734"/>
+        <c:crossAx val="841047268"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="273708872"/>
-        <c:axId val="1315338597"/>
+        <c:axId val="683728470"/>
+        <c:axId val="1652474933"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="273708872"/>
+        <c:axId val="683728470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315338597"/>
+        <c:crossAx val="1652474933"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1315338597"/>
+        <c:axId val="1652474933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273708872"/>
+        <c:crossAx val="683728470"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1782,11 +1782,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1028413651"/>
-        <c:axId val="255424877"/>
+        <c:axId val="1446531265"/>
+        <c:axId val="1935796122"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1028413651"/>
+        <c:axId val="1446531265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,10 +1838,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255424877"/>
+        <c:crossAx val="1935796122"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255424877"/>
+        <c:axId val="1935796122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1916,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028413651"/>
+        <c:crossAx val="1446531265"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2067,11 +2067,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1256565852"/>
-        <c:axId val="1057334755"/>
+        <c:axId val="22307451"/>
+        <c:axId val="1502002309"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1256565852"/>
+        <c:axId val="22307451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,10 +2123,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1057334755"/>
+        <c:crossAx val="1502002309"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1057334755"/>
+        <c:axId val="1502002309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2204,7 +2204,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1256565852"/>
+        <c:crossAx val="22307451"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2390,10 +2390,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -11875,6 +11875,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="7" max="7" width="20.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">

--- a/TAN based intrusion detection - results.xlsx
+++ b/TAN based intrusion detection - results.xlsx
@@ -670,11 +670,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1244134209"/>
-        <c:axId val="1254460548"/>
+        <c:axId val="146497486"/>
+        <c:axId val="1794945254"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1244134209"/>
+        <c:axId val="146497486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,10 +726,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254460548"/>
+        <c:crossAx val="1794945254"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1254460548"/>
+        <c:axId val="1794945254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +804,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244134209"/>
+        <c:crossAx val="146497486"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -955,11 +955,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1412944634"/>
-        <c:axId val="485941672"/>
+        <c:axId val="1728171284"/>
+        <c:axId val="996962337"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1412944634"/>
+        <c:axId val="1728171284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,10 +1011,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485941672"/>
+        <c:crossAx val="996962337"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485941672"/>
+        <c:axId val="996962337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412944634"/>
+        <c:crossAx val="1728171284"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1180,11 +1180,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="841047268"/>
-        <c:axId val="873069523"/>
+        <c:axId val="1352802750"/>
+        <c:axId val="1499060557"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="841047268"/>
+        <c:axId val="1352802750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,10 +1236,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873069523"/>
+        <c:crossAx val="1499060557"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873069523"/>
+        <c:axId val="1499060557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1314,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841047268"/>
+        <c:crossAx val="1352802750"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1467,11 +1467,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="683728470"/>
-        <c:axId val="1652474933"/>
+        <c:axId val="533448523"/>
+        <c:axId val="990005863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="683728470"/>
+        <c:axId val="533448523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652474933"/>
+        <c:crossAx val="990005863"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1652474933"/>
+        <c:axId val="990005863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683728470"/>
+        <c:crossAx val="533448523"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1782,11 +1782,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1446531265"/>
-        <c:axId val="1935796122"/>
+        <c:axId val="983737548"/>
+        <c:axId val="1123887591"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1446531265"/>
+        <c:axId val="983737548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,10 +1838,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935796122"/>
+        <c:crossAx val="1123887591"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935796122"/>
+        <c:axId val="1123887591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1916,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446531265"/>
+        <c:crossAx val="983737548"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2067,11 +2067,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="22307451"/>
-        <c:axId val="1502002309"/>
+        <c:axId val="772433775"/>
+        <c:axId val="2090522846"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22307451"/>
+        <c:axId val="772433775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,10 +2123,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502002309"/>
+        <c:crossAx val="2090522846"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1502002309"/>
+        <c:axId val="2090522846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2204,7 +2204,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22307451"/>
+        <c:crossAx val="772433775"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -11877,6 +11877,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="7" max="7" width="20.29"/>
+    <col customWidth="1" min="15" max="15" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
